--- a/AutoRegularInspectionTestProject/外观检查.xlsx
+++ b/AutoRegularInspectionTestProject/外观检查.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eamdf\source\repos\AutoRegularInspection\AutoRegularInspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924BDD1A-DBF0-453D-B1AD-6CD25FF8B5BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFEBC70-A3FB-43D8-A338-169DB672DE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="3765" windowWidth="28125" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="桥面系" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
   <si>
     <t>序号</t>
   </si>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>构件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -200,6 +208,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,7 +501,7 @@
     <col min="7" max="7" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +523,11 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -536,7 +550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -558,8 +572,11 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -580,7 +597,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -602,8 +619,11 @@
       <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -626,7 +646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -634,7 +654,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -642,7 +662,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -650,7 +670,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -658,7 +678,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -666,7 +686,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -674,7 +694,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -682,7 +702,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -690,7 +710,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -698,7 +718,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -829,17 +849,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -849,7 +867,7 @@
     <col min="7" max="7" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -871,8 +889,11 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -895,7 +916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -917,8 +938,9 @@
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -926,7 +948,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -934,7 +956,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -942,7 +964,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -950,7 +972,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -958,7 +980,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -974,11 +996,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -988,7 +1008,7 @@
     <col min="7" max="7" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1034,7 +1057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1056,8 +1079,9 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1079,8 +1103,11 @@
       <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1103,7 +1130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1126,7 +1153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>

--- a/AutoRegularInspectionTestProject/外观检查.xlsx
+++ b/AutoRegularInspectionTestProject/外观检查.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eamdf\source\repos\AutoRegularInspection\AutoRegularInspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFEBC70-A3FB-43D8-A338-169DB672DE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA36B7B7-6488-4CA0-B9E2-A39736BE6C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>序号</t>
   </si>
@@ -156,6 +156,42 @@
   </si>
   <si>
     <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位1数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位2数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用自定义单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +210,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -198,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -212,6 +256,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,11 +535,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -499,9 +545,13 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="6" width="27.875" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +576,23 @@
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -549,8 +614,20 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -575,8 +652,20 @@
       <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -596,8 +685,20 @@
         <v>12</v>
       </c>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -622,8 +723,20 @@
       <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -646,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -654,7 +767,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -662,7 +775,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -670,7 +783,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -678,7 +791,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -686,7 +799,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -694,7 +807,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -702,7 +815,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -710,7 +823,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -718,7 +831,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -855,9 +968,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -865,9 +980,10 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="6" width="27.875" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,8 +1008,23 @@
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -916,7 +1047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -940,7 +1071,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -948,7 +1079,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -956,7 +1087,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -964,7 +1095,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -972,7 +1103,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -980,7 +1111,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -996,9 +1127,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1006,9 +1139,10 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="6" width="27.875" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,8 +1167,23 @@
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1057,7 +1206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1081,7 +1230,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1106,8 +1255,20 @@
       <c r="H4" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1129,8 +1290,20 @@
       <c r="G5" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1153,7 +1326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>

--- a/AutoRegularInspectionTestProject/外观检查.xlsx
+++ b/AutoRegularInspectionTestProject/外观检查.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eamdf\source\repos\AutoRegularInspection\AutoRegularInspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA36B7B7-6488-4CA0-B9E2-A39736BE6C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC5C80-42B8-4211-B96C-87DD785D7181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -758,6 +764,12 @@
       <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
@@ -970,9 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AutoRegularInspectionTestProject/外观检查.xlsx
+++ b/AutoRegularInspectionTestProject/外观检查.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eamdf\source\repos\AutoRegularInspection\AutoRegularInspection\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC5C80-42B8-4211-B96C-87DD785D7181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21510" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="桥面系" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -30,12 +24,42 @@
     <t>位置</t>
   </si>
   <si>
+    <t>要素</t>
+  </si>
+  <si>
+    <t>缺损类型</t>
+  </si>
+  <si>
+    <t>缺损描述</t>
+  </si>
+  <si>
     <t>图片描述</t>
   </si>
   <si>
     <t>照片编号</t>
   </si>
   <si>
+    <t>自定义照片编号</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>单位1</t>
+  </si>
+  <si>
+    <t>单位1数量</t>
+  </si>
+  <si>
+    <t>单位2</t>
+  </si>
+  <si>
+    <t>单位2数量</t>
+  </si>
+  <si>
+    <t>使用自定义单位</t>
+  </si>
+  <si>
     <t>第1跨</t>
   </si>
   <si>
@@ -51,6 +75,12 @@
     <t>855,858</t>
   </si>
   <si>
+    <t>条</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
     <t>接缝处铺装碎边</t>
   </si>
   <si>
@@ -60,6 +90,33 @@
     <t>868</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-1</t>
+    </r>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>处</t>
+  </si>
+  <si>
+    <t>平方米</t>
+  </si>
+  <si>
     <t>右幅0#伸缩缝沉积物阻塞</t>
   </si>
   <si>
@@ -78,6 +135,9 @@
     <t>从0#台起第8节栏杆缺失</t>
   </si>
   <si>
+    <t>构件类型</t>
+  </si>
+  <si>
     <t>主梁</t>
   </si>
   <si>
@@ -133,77 +193,19 @@
   </si>
   <si>
     <t>右幅支座完好</t>
-  </si>
-  <si>
-    <t>要素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺损类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺损描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>构件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位1数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位2数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用自定义单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,29 +214,355 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,40 +570,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -533,31 +1145,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="6" width="27.875" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="9.25" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,435 +1178,444 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2">
+      <c r="L2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
         <v>11.2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3">
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="I4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4">
+      <c r="L4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4">
         <v>10.1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5">
+      <c r="L5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5">
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="6" width="27.875" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="7" max="8" width="25.25" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1001,158 +1623,170 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="6" width="27.875" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.25" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,207 +1794,216 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AutoRegularInspectionTestProject/外观检查.xlsx
+++ b/AutoRegularInspectionTestProject/外观检查.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="12330"/>
+    <workbookView windowWidth="17790" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="桥面系" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <t>左幅0#伸缩缝沉积物阻塞</t>
   </si>
   <si>
-    <t>855,858</t>
+    <t>855;858</t>
   </si>
   <si>
     <t>条</t>
@@ -123,7 +123,7 @@
     <t>右幅1#伸缩缝沉积物阻塞</t>
   </si>
   <si>
-    <t>855,858,875</t>
+    <t>855;858;875</t>
   </si>
   <si>
     <t>栏杆</t>
@@ -200,9 +200,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -220,6 +220,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -233,15 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,8 +262,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,93 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -364,6 +357,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -377,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,17 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -608,39 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,8 +619,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,133 +686,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/AutoRegularInspectionTestProject/外观检查.xlsx
+++ b/AutoRegularInspectionTestProject/外观检查.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17790" windowHeight="9330"/>
+    <workbookView windowWidth="19350" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="桥面系" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>序号</t>
   </si>
@@ -30,7 +30,10 @@
     <t>缺损类型</t>
   </si>
   <si>
-    <t>缺损描述</t>
+    <t>缺损位置</t>
+  </si>
+  <si>
+    <t>缺损程度</t>
   </si>
   <si>
     <t>图片描述</t>
@@ -69,6 +72,12 @@
     <t>缝内沉积物阻塞</t>
   </si>
   <si>
+    <t>左幅0#</t>
+  </si>
+  <si>
+    <t>伸缩缝沉积物阻塞</t>
+  </si>
+  <si>
     <t>左幅0#伸缩缝沉积物阻塞</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
   </si>
   <si>
     <t>接缝处铺装碎边</t>
+  </si>
+  <si>
+    <t>伸缩缝接缝处铺装碎边</t>
   </si>
   <si>
     <t>左幅0#伸缩缝接缝处铺装碎边</t>
@@ -117,9 +129,15 @@
     <t>平方米</t>
   </si>
   <si>
+    <t>右幅0#</t>
+  </si>
+  <si>
     <t>右幅0#伸缩缝沉积物阻塞</t>
   </si>
   <si>
+    <t>右幅1#</t>
+  </si>
+  <si>
     <t>右幅1#伸缩缝沉积物阻塞</t>
   </si>
   <si>
@@ -132,6 +150,12 @@
     <t>丢失残缺</t>
   </si>
   <si>
+    <t>从0#台起第8节</t>
+  </si>
+  <si>
+    <t>栏杆缺失</t>
+  </si>
+  <si>
     <t>从0#台起第8节栏杆缺失</t>
   </si>
   <si>
@@ -162,16 +186,31 @@
     <t>水蚀</t>
   </si>
   <si>
+    <t>右幅0#台</t>
+  </si>
+  <si>
+    <t>台身水蚀</t>
+  </si>
+  <si>
     <t>右幅0#台台身水蚀</t>
   </si>
   <si>
     <t>1#台</t>
   </si>
   <si>
+    <t>右幅1#台</t>
+  </si>
+  <si>
     <t>右幅1#台台身水蚀</t>
   </si>
   <si>
     <t>露筋锈蚀</t>
+  </si>
+  <si>
+    <t>左幅1#台</t>
+  </si>
+  <si>
+    <t>台身露筋锈蚀</t>
   </si>
   <si>
     <t>左幅1#台台身露筋锈蚀</t>
@@ -201,9 +240,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -220,7 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,14 +273,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,13 +289,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,19 +310,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,6 +357,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -334,6 +366,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -377,187 +416,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,17 +640,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,15 +654,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +668,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -674,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,133 +725,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -821,10 +860,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1151,26 +1190,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="6" width="27.875" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="4" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1192,403 +1231,446 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2">
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2">
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2">
         <v>11.2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3">
+        <v>27</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3">
+      <c r="M3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4">
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="K4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4">
+      <c r="M4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4">
         <v>10.1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5">
+      <c r="K5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5">
+      <c r="M5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5">
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="G11" s="1"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="G16" s="1"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="G21" s="1"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="G26" s="1"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,22 +1682,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="6" width="27.875" customWidth="1"/>
-    <col min="7" max="8" width="25.25" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="4" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="9" width="25.25" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:14">
+    <row r="1" ht="15" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1637,130 +1719,145 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:8">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1771,22 +1868,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="6" width="27.875" customWidth="1"/>
-    <col min="7" max="8" width="25.25" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="4" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="9" width="25.25" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:14">
+    <row r="1" ht="15" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1808,199 +1905,220 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4">
+        <v>29</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4">
+      <c r="M4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4">
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="J5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5">
+        <v>59</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="K5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5">
+      <c r="M5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
